--- a/medicine/Psychotrope/Regional_(bière)/Regional_(bière).xlsx
+++ b/medicine/Psychotrope/Regional_(bière)/Regional_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regional_(bi%C3%A8re)</t>
+          <t>Regional_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regional est une marque de bière produite au Venezuela par Cervecería Regional CA, fondé en 1929, et situé à Maracaibo. La société appartient depuis 1992 au groupe Cisneros[1].
-Au moment de son rachat par Cisneros, Regional représente 4,9% du marché national. Cette part monte à 7,6% en 1995 puis 17,8% en 1999[2]. En 2010, AmBev annonce fusionner ses activités au Venezuela avec Regional[3].
-En 2015, la brasserie occupe 20% du marché de la bière au Venezuela avec 4 millions de litres produits chaque mois[4]. En 2016, l'entreprise emploie environ 3 700 personnes[5].
-En 2016, le concurrent et leader du marché Polar accuse Regional de bénéficier d'avantages de la part du gouvernement pour l'obtention de devises étrangères, nécessaires à l'importation de houblon. Regional rejette ces accusations[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Regional est une marque de bière produite au Venezuela par Cervecería Regional CA, fondé en 1929, et situé à Maracaibo. La société appartient depuis 1992 au groupe Cisneros.
+Au moment de son rachat par Cisneros, Regional représente 4,9% du marché national. Cette part monte à 7,6% en 1995 puis 17,8% en 1999. En 2010, AmBev annonce fusionner ses activités au Venezuela avec Regional.
+En 2015, la brasserie occupe 20% du marché de la bière au Venezuela avec 4 millions de litres produits chaque mois. En 2016, l'entreprise emploie environ 3 700 personnes.
+En 2016, le concurrent et leader du marché Polar accuse Regional de bénéficier d'avantages de la part du gouvernement pour l'obtention de devises étrangères, nécessaires à l'importation de houblon. Regional rejette ces accusations.
 </t>
         </is>
       </c>
